--- a/storage/seeds/schools.xlsx
+++ b/storage/seeds/schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Sites/nonpns/storage/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C671F480-3FBD-0847-9971-353A342B33FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0CF799-B53A-0E42-8EFA-835B076A4D36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{4418B8A5-06C9-3C4B-98DE-97A74162E849}"/>
   </bookViews>
@@ -1364,9 +1364,6 @@
     <t>SMAN 1 Gunungsari</t>
   </si>
   <si>
-    <t>SMAN 1 Pamayaran</t>
-  </si>
-  <si>
     <t>SMAN 1 Lebak Wangi</t>
   </si>
   <si>
@@ -1464,6 +1461,9 @@
   </si>
   <si>
     <t>SMKN 1 Padarincang</t>
+  </si>
+  <si>
+    <t>SMAN 1 Pamarayan</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AE40C-2909-734B-A3E6-42A797D8DF30}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2798,7 +2798,7 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4038,7 +4038,7 @@
         <v>138</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="D109" s="5">
         <v>3</v>
@@ -4178,7 +4178,7 @@
         <v>88</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D116" s="5">
         <v>3</v>
@@ -5638,7 +5638,7 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D189">
         <v>5</v>
@@ -5678,7 +5678,7 @@
         <v>200</v>
       </c>
       <c r="C191" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D191">
         <v>5</v>
@@ -5718,7 +5718,7 @@
         <v>201</v>
       </c>
       <c r="C193" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D193">
         <v>5</v>
@@ -5758,7 +5758,7 @@
         <v>202</v>
       </c>
       <c r="C195" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D195">
         <v>5</v>
@@ -5798,7 +5798,7 @@
         <v>203</v>
       </c>
       <c r="C197" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D197">
         <v>5</v>
@@ -5818,7 +5818,7 @@
         <v>204</v>
       </c>
       <c r="C198" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D198">
         <v>5</v>
@@ -5838,7 +5838,7 @@
         <v>205</v>
       </c>
       <c r="C199" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D199">
         <v>5</v>
@@ -5858,7 +5858,7 @@
         <v>192</v>
       </c>
       <c r="C200" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D200">
         <v>5</v>
@@ -5898,7 +5898,7 @@
         <v>193</v>
       </c>
       <c r="C202" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D202">
         <v>5</v>
@@ -5938,7 +5938,7 @@
         <v>194</v>
       </c>
       <c r="C204" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D204">
         <v>5</v>
@@ -5978,7 +5978,7 @@
         <v>195</v>
       </c>
       <c r="C206" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D206">
         <v>5</v>
@@ -6018,7 +6018,7 @@
         <v>196</v>
       </c>
       <c r="C208" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D208">
         <v>5</v>
@@ -6058,7 +6058,7 @@
         <v>197</v>
       </c>
       <c r="C210" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D210">
         <v>5</v>
@@ -6098,7 +6098,7 @@
         <v>198</v>
       </c>
       <c r="C212" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D212">
         <v>5</v>
@@ -6138,7 +6138,7 @@
         <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D214">
         <v>5</v>
@@ -6178,7 +6178,7 @@
         <v>206</v>
       </c>
       <c r="C216" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D216">
         <v>5</v>
@@ -6218,7 +6218,7 @@
         <v>207</v>
       </c>
       <c r="C218" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D218">
         <v>5</v>
@@ -6258,7 +6258,7 @@
         <v>208</v>
       </c>
       <c r="C220" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D220">
         <v>5</v>
@@ -6298,7 +6298,7 @@
         <v>209</v>
       </c>
       <c r="C222" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D222">
         <v>5</v>
@@ -6338,7 +6338,7 @@
         <v>210</v>
       </c>
       <c r="C224" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D224">
         <v>5</v>
@@ -6378,7 +6378,7 @@
         <v>211</v>
       </c>
       <c r="C226" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D226">
         <v>5</v>
@@ -6418,7 +6418,7 @@
         <v>212</v>
       </c>
       <c r="C228" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D228">
         <v>5</v>
@@ -6458,7 +6458,7 @@
         <v>213</v>
       </c>
       <c r="C230" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D230">
         <v>5</v>
@@ -6478,7 +6478,7 @@
         <v>214</v>
       </c>
       <c r="C231" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D231">
         <v>5</v>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D234" s="3">
         <v>1</v>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D235" s="3">
         <v>4</v>
@@ -6566,7 +6566,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D236" s="3">
         <v>1</v>
@@ -6583,7 +6583,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D237" s="3">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D238" s="3">
         <v>2</v>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D239" s="3">
         <v>3</v>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D240" s="3">
         <v>3</v>
